--- a/BHTT/Excell/import.xlsx
+++ b/BHTT/Excell/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohie\OneDrive\Documents\GitHub\BHTT_JAVA\BHTT\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704477FB-E0F7-4A19-9CC1-DB1AC3BC042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECEC8E1-4212-46A3-AEF1-F149EB4055FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="792" windowWidth="20088" windowHeight="11448" xr2:uid="{B94B3B54-9BCA-4B64-B3E4-3145646DB399}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Đồ lót</t>
   </si>
   <si>
-    <t>Hải Anh</t>
-  </si>
-  <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Chanel</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
